--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_5</t>
+          <t>model_12_6_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.939829050628066</v>
+        <v>0.9619275618215812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6762885424851283</v>
+        <v>0.7622440488640159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4690508934982948</v>
+        <v>0.9986375884311248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7239928047944948</v>
+        <v>0.9464825919088463</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5942136883460902</v>
+        <v>0.9895362580805287</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4023634155118689</v>
+        <v>0.2545905694065448</v>
       </c>
       <c r="H2" t="n">
-        <v>2.164660006956153</v>
+        <v>1.589875140011817</v>
       </c>
       <c r="I2" t="n">
-        <v>1.162193614055319</v>
+        <v>0.01684467576654022</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5281299849044357</v>
+        <v>0.1725395083419685</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8451617221006531</v>
+        <v>0.09469223238980293</v>
       </c>
       <c r="L2" t="n">
-        <v>1.272835568348701</v>
+        <v>0.7692515937341355</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6343212242325404</v>
+        <v>0.5045696873639406</v>
       </c>
       <c r="N2" t="n">
-        <v>1.032091172998365</v>
+        <v>1.020305300361823</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6613255919740726</v>
+        <v>0.5260502635582675</v>
       </c>
       <c r="P2" t="n">
-        <v>139.8207991601113</v>
+        <v>140.7361972687351</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.9232310760172</v>
+        <v>224.8386291846409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_4</t>
+          <t>model_12_6_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9411898911083419</v>
+        <v>0.9571733093693564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6760550167110857</v>
+        <v>0.7620335805524614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5532260998265668</v>
+        <v>0.9995132596497145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7592883254866724</v>
+        <v>0.9852074886241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6546588879144427</v>
+        <v>0.9970325168196528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.393263468954169</v>
+        <v>0.2863822774458915</v>
       </c>
       <c r="H3" t="n">
-        <v>2.166221594882463</v>
+        <v>1.591282542580299</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9779426452551814</v>
+        <v>0.006017993072255172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4605932571156012</v>
+        <v>0.0476908865912875</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7192679511853912</v>
+        <v>0.02685440916727692</v>
       </c>
       <c r="L3" t="n">
-        <v>1.210907117718938</v>
+        <v>0.6789926761357296</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6271072228528141</v>
+        <v>0.5351469680806307</v>
       </c>
       <c r="N3" t="n">
-        <v>1.031365391408884</v>
+        <v>1.022840901669677</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6538044756205696</v>
+        <v>0.5579292824187639</v>
       </c>
       <c r="P3" t="n">
-        <v>139.86655097454</v>
+        <v>140.5008554524734</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.9689828904459</v>
+        <v>224.6032873683792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_6</t>
+          <t>model_12_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9377917051424496</v>
+        <v>0.9638449796911895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6757550131012688</v>
+        <v>0.7612521450507131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3871071849807579</v>
+        <v>0.997503157857547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6909033968317098</v>
+        <v>0.8924178946413036</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5359543818398909</v>
+        <v>0.9791307971383089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4159871541552987</v>
+        <v>0.2417687872835761</v>
       </c>
       <c r="H4" t="n">
-        <v>2.168227720402697</v>
+        <v>1.596508005378669</v>
       </c>
       <c r="I4" t="n">
-        <v>1.341560061017757</v>
+        <v>0.03087062477352661</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5914453941816133</v>
+        <v>0.3468434706958766</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9665027688562278</v>
+        <v>0.1888570477347016</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32681794027863</v>
+        <v>0.8456720201142184</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6449706614686429</v>
+        <v>0.49169989554969</v>
       </c>
       <c r="N4" t="n">
-        <v>1.03317775725736</v>
+        <v>1.019282677498032</v>
       </c>
       <c r="O4" t="n">
-        <v>0.67242839780069</v>
+        <v>0.5126325780623424</v>
       </c>
       <c r="P4" t="n">
-        <v>139.7542017972641</v>
+        <v>140.8395468679647</v>
       </c>
       <c r="Q4" t="n">
-        <v>223.8566337131699</v>
+        <v>224.9419787838705</v>
       </c>
     </row>
     <row r="5">
@@ -687,437 +687,1207 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9415564034448066</v>
+        <v>0.9638727278194777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6747668797268106</v>
+        <v>0.7595948489299886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.638144080603239</v>
+        <v>0.996237375522985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.79621773718572</v>
+        <v>0.8305360921839358</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7162449702639057</v>
+        <v>0.9672431771740435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3908125992725957</v>
+        <v>0.2415832354219445</v>
       </c>
       <c r="H5" t="n">
-        <v>2.174835372827635</v>
+        <v>1.607590352169101</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7920658187032492</v>
+        <v>0.04652058951532177</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3899301367986614</v>
+        <v>0.5463496903005954</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5909979777509553</v>
+        <v>0.2964347461222345</v>
       </c>
       <c r="L5" t="n">
-        <v>1.140164164273835</v>
+        <v>0.9061113479448936</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6251500614033367</v>
+        <v>0.4915111752767626</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03116991816277</v>
+        <v>1.019267878496279</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6517639937563053</v>
+        <v>0.5124358235766917</v>
       </c>
       <c r="P5" t="n">
-        <v>139.8790542392775</v>
+        <v>140.8410824102778</v>
       </c>
       <c r="Q5" t="n">
-        <v>223.9814861551833</v>
+        <v>224.9435143261836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_7</t>
+          <t>model_12_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9353205604396596</v>
+        <v>0.9627204320520117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6746804608450467</v>
+        <v>0.757607027023016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3084520731648774</v>
+        <v>0.9949193086771081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6603503570645187</v>
+        <v>0.7664784825081125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4805883654538575</v>
+        <v>0.9549321627343392</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4325117101614308</v>
+        <v>0.2492886425248237</v>
       </c>
       <c r="H6" t="n">
-        <v>2.175413256287912</v>
+        <v>1.620882926414106</v>
       </c>
       <c r="I6" t="n">
-        <v>1.513728104142489</v>
+        <v>0.06281699301382886</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6499075528185175</v>
+        <v>0.7528706873601527</v>
       </c>
       <c r="K6" t="n">
-        <v>1.081817742306053</v>
+        <v>0.4078439770885873</v>
       </c>
       <c r="L6" t="n">
-        <v>1.373741611759125</v>
+        <v>0.9517449020613852</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6576562249089039</v>
+        <v>0.4992881357741477</v>
       </c>
       <c r="N6" t="n">
-        <v>1.034495701098848</v>
+        <v>1.019882436238927</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6856540119393394</v>
+        <v>0.5205438653829779</v>
       </c>
       <c r="P6" t="n">
-        <v>139.676291754918</v>
+        <v>140.778287693904</v>
       </c>
       <c r="Q6" t="n">
-        <v>223.7787236708238</v>
+        <v>224.8807196098098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_8</t>
+          <t>model_12_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9325980264183783</v>
+        <v>0.9608869405086622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6732402116758771</v>
+        <v>0.7554924497986648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2337964870584153</v>
+        <v>0.9935963472900312</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6324695714641053</v>
+        <v>0.7039857250645902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4285517175309869</v>
+        <v>0.94289659649985</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4507173076978556</v>
+        <v>0.2615492089176546</v>
       </c>
       <c r="H7" t="n">
-        <v>2.185044209113888</v>
+        <v>1.635023114050074</v>
       </c>
       <c r="I7" t="n">
-        <v>1.677141592109642</v>
+        <v>0.07917391196994147</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7032564478257897</v>
+        <v>0.9543466188154646</v>
       </c>
       <c r="K7" t="n">
-        <v>1.190198389232231</v>
+        <v>0.5167605237303162</v>
       </c>
       <c r="L7" t="n">
-        <v>1.414450101848161</v>
+        <v>0.9846229240336767</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6713548299504932</v>
+        <v>0.5114188194793525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.035947719243532</v>
+        <v>1.02086029839538</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6999357949575707</v>
+        <v>0.5331909774074904</v>
       </c>
       <c r="P7" t="n">
-        <v>139.5938298964165</v>
+        <v>140.6822656675265</v>
       </c>
       <c r="Q7" t="n">
-        <v>223.6962618123223</v>
+        <v>224.7846975834324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_2</t>
+          <t>model_12_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9405186882294494</v>
+        <v>0.9587050339414306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6720627466208535</v>
+        <v>0.7533715253090292</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7217936121131313</v>
+        <v>0.9922972393766697</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8339241609150146</v>
+        <v>0.6452456001693581</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7775214902195924</v>
+        <v>0.9315458220438433</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3977518056959291</v>
+        <v>0.2761396281794885</v>
       </c>
       <c r="H8" t="n">
-        <v>2.192917923358559</v>
+        <v>1.649205745878227</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6089654986366898</v>
+        <v>0.09523590974377862</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3177802315031655</v>
+        <v>1.143724106082911</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4633727532356122</v>
+        <v>0.6194800079133446</v>
       </c>
       <c r="L8" t="n">
-        <v>1.059765806135474</v>
+        <v>1.007048797170991</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6306756739370317</v>
+        <v>0.525489893508418</v>
       </c>
       <c r="N8" t="n">
-        <v>1.031723366277627</v>
+        <v>1.022023981897904</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6575248430551545</v>
+        <v>0.547861086189112</v>
       </c>
       <c r="P8" t="n">
-        <v>139.843854143997</v>
+        <v>140.5736972839756</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.9462860599028</v>
+        <v>224.6761291998814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_9</t>
+          <t>model_12_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9297583536140722</v>
+        <v>0.9563875073083934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6715683258236724</v>
+        <v>0.7513132315654336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1635745772013186</v>
+        <v>0.9910398687662846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6072528123628815</v>
+        <v>0.5913375117953703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3800680299232259</v>
+        <v>0.9210842177242579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4697062128157408</v>
+        <v>0.291636939445837</v>
       </c>
       <c r="H9" t="n">
-        <v>2.196224117505907</v>
+        <v>1.662969565619222</v>
       </c>
       <c r="I9" t="n">
-        <v>1.830850213526116</v>
+        <v>0.1107818730445753</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7515078225537282</v>
+        <v>1.317523163164689</v>
       </c>
       <c r="K9" t="n">
-        <v>1.291179018039922</v>
+        <v>0.7141528959704309</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44974469361701</v>
+        <v>1.030926578316617</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6853511602206133</v>
+        <v>0.5400342021074563</v>
       </c>
       <c r="N9" t="n">
-        <v>1.037462211405828</v>
+        <v>1.02325999610219</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7145279779836877</v>
+        <v>0.5630245761160807</v>
       </c>
       <c r="P9" t="n">
-        <v>139.5112957176738</v>
+        <v>140.464491216774</v>
       </c>
       <c r="Q9" t="n">
-        <v>223.6137276335796</v>
+        <v>224.5669231326798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_10</t>
+          <t>model_12_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9268983821068513</v>
+        <v>0.9540653845563596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.669765830470038</v>
+        <v>0.7493549118424314</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09800019315313979</v>
+        <v>0.9898355851985053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5845936686879256</v>
+        <v>0.5426226829152445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3352015902237555</v>
+        <v>0.9115840058147922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4888308554534858</v>
+        <v>0.3071649849810796</v>
       </c>
       <c r="H10" t="n">
-        <v>2.208277412235388</v>
+        <v>1.676064858624171</v>
       </c>
       <c r="I10" t="n">
-        <v>1.974385873447525</v>
+        <v>0.1256714751983225</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7948652908186107</v>
+        <v>1.474579211350427</v>
       </c>
       <c r="K10" t="n">
-        <v>1.384625732115558</v>
+        <v>0.8001256082952155</v>
       </c>
       <c r="L10" t="n">
-        <v>1.480341177269855</v>
+        <v>1.068584124550683</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6991643980162933</v>
+        <v>0.5542246701303358</v>
       </c>
       <c r="N10" t="n">
-        <v>1.038987529543013</v>
+        <v>1.024498461569942</v>
       </c>
       <c r="O10" t="n">
-        <v>0.728929273909674</v>
+        <v>0.5778191617410127</v>
       </c>
       <c r="P10" t="n">
-        <v>139.4314774964244</v>
+        <v>140.3607405307727</v>
       </c>
       <c r="Q10" t="n">
-        <v>223.5339094123302</v>
+        <v>224.4631724466785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_1</t>
+          <t>model_12_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9375566837854675</v>
+        <v>0.9518158532430399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6674930762547278</v>
+        <v>0.7475151919048482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8015452238570375</v>
+        <v>0.9886915448344696</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8712541179982901</v>
+        <v>0.4990327950793965</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8365765361822366</v>
+        <v>0.9030378375774695</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4175587430516117</v>
+        <v>0.3222076112313877</v>
       </c>
       <c r="H11" t="n">
-        <v>2.223475330138239</v>
+        <v>1.688367074317922</v>
       </c>
       <c r="I11" t="n">
-        <v>0.434397328647521</v>
+        <v>0.1398162383787516</v>
       </c>
       <c r="J11" t="n">
-        <v>0.246350681790904</v>
+        <v>1.615112508536058</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3403743599652886</v>
+        <v>0.8774646477133237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9689950058906021</v>
+        <v>1.101860526568889</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6461878543052413</v>
+        <v>0.5676333422477821</v>
       </c>
       <c r="N11" t="n">
-        <v>1.033303101981084</v>
+        <v>1.025698211603712</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6736974090562788</v>
+        <v>0.5917986687902763</v>
       </c>
       <c r="P11" t="n">
-        <v>139.7466600853376</v>
+        <v>140.2651183716524</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.8490920012434</v>
+        <v>224.3675502875582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_6_0</t>
+          <t>model_12_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9320174211944091</v>
+        <v>0.9496819646421522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6605022108806817</v>
+        <v>0.7458013081451501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8740267294978931</v>
+        <v>0.9876118678282406</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9067636584457924</v>
+        <v>0.4602689209159952</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8909756260876716</v>
+        <v>0.8953953245680543</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4545998175039784</v>
+        <v>0.3364769341311768</v>
       </c>
       <c r="H12" t="n">
-        <v>2.27022327908446</v>
+        <v>1.699827822910732</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2757426817870383</v>
+        <v>0.1531652215480107</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1784044347862215</v>
+        <v>1.740086793131293</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2270732771421745</v>
+        <v>0.9466260073396517</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8672384487150334</v>
+        <v>1.131269068003196</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6742401779069372</v>
+        <v>0.5800663187353466</v>
       </c>
       <c r="N12" t="n">
-        <v>1.036257375362982</v>
+        <v>1.026836285524185</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7029439781500143</v>
+        <v>0.6047609428267259</v>
       </c>
       <c r="P12" t="n">
-        <v>139.5766755380137</v>
+        <v>140.1784513573246</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.6791074539195</v>
+        <v>224.2808832732304</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9476853909269847</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7442141653427297</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.986598586465872</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4259240790090851</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8885853487613528</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3498280317578786</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.710441054138637</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1656932977911309</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.850814168541696</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.008253273820407</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.157283694642082</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.591462620761345</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.027901124838942</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6166424090235684</v>
+      </c>
+      <c r="P13" t="n">
+        <v>140.1006271661586</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>224.2030590820644</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9458341974142227</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7427505760720201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9856521224776041</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3955518280648631</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8825285518587708</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3622069713016806</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.720228082331081</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1773952528914102</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.948733956365299</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.063064604628355</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.180328663840087</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6018363326533889</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028888428045748</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6274577513074006</v>
+      </c>
+      <c r="P14" t="n">
+        <v>140.0310789732247</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>224.1335108891305</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9441288806058123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7414051843568078</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9847718291084807</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3687157793932302</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8771468932664431</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.373610432651782</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.729224722925665</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1882790832412671</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.035253068721378</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.111766232591768</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.200765847887467</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6112368057077241</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.029797930343567</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6372584219613207</v>
+      </c>
+      <c r="P15" t="n">
+        <v>139.9690832967211</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>224.0715152126269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9425651125168154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7401717510692961</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9839559304424943</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3450058888375294</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8723661728766825</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3840673570633951</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.737472696998694</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1983667460304499</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.111693483256303</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.155029635839079</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.218920706656213</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6197316815069205</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.030631939991032</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.646114942210106</v>
+      </c>
+      <c r="P16" t="n">
+        <v>139.913874665515</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>224.0163065814209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9411359276519454</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7390432733541218</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9832021353941068</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3240489678434874</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8681181390209901</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3936243228355719</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.745018832676227</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2076865679363923</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.179258355578122</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.193472461757257</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.235067853552785</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6273948699468078</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.031394171918963</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6541043684468663</v>
+      </c>
+      <c r="P17" t="n">
+        <v>139.8647166397825</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>223.9671485556883</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9398330615176577</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7380125964022788</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9825077372738522</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3055114794336521</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8643417059223225</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4023365946747011</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.751910974199032</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2162720141083162</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.239023005067128</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.227647509587722</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.249448349236447</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6343000825119772</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.032089033857249</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6613035502066955</v>
+      </c>
+      <c r="P18" t="n">
+        <v>139.8209324810351</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>223.9233643969409</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9386476016325789</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7370726809357151</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9818696571574497</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2890982647520374</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.860982177637895</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4102637703847636</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.758196193251856</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2241611519572785</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.291939020481281</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.25804975340044</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.262273696944625</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6405183606929341</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.032721279129291</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6677865533634261</v>
+      </c>
+      <c r="P19" t="n">
+        <v>139.7819099674759</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>223.8843418833817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9375706294473427</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7362165785252768</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9812845261313565</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2745512957350822</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8579911985996507</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4174654883464384</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.763920954012447</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2313956342830704</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.33883828133069</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.285116789680782</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.273719775109208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6461156926947669</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.033295664294751</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6736221753766515</v>
+      </c>
+      <c r="P20" t="n">
+        <v>139.7471068015025</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>223.8495387174083</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9365934082744521</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7354378578725084</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9807490243065682</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2616443454823992</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8553262952983649</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.424000170829248</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.769128262603187</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.238016507752603</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.380450140541044</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.309232984885494</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.283961725020963</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6511529550184411</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.033816848920292</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.678873884386015</v>
+      </c>
+      <c r="P21" t="n">
+        <v>139.7160428417022</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>223.818474757608</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9357076363548673</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7347301452661391</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9802599279174921</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2501801028716986</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8529500254276057</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4299233317341164</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.773860740060696</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2440636305756838</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.41741072690192</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.330737175313213</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.293118257951382</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6556853908194969</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.034289260610737</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6835992753625573</v>
+      </c>
+      <c r="P22" t="n">
+        <v>139.6882967689686</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>223.7907286848745</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9349055116698211</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7340876788815744</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9798137015362474</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2399883416916534</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8508297441105918</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4352871431964646</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.778156915732566</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2495807143132714</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.450268847761373</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.349924782647912</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.301301909933709</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6597629446979154</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.034717060442762</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6878504191512803</v>
+      </c>
+      <c r="P23" t="n">
+        <v>139.6634987327219</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>223.7659306486277</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9341794335162442</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.733504834261009</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9794073129642077</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2309154698690326</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8489360422719513</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4401424311527158</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.782054400394039</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.254605248666637</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.479519682197494</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.367061946003198</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.308635474450599</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6634323109049753</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.03510430212467</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6916759978744099</v>
+      </c>
+      <c r="P24" t="n">
+        <v>139.6413137945729</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>223.7437457104787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9335227906794106</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7329765074105556</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9790377151740872</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2228329502423835</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8472437690428213</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4445334048261843</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.785587324475743</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2591749066766244</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.505577632540887</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.382376269608755</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.315203352745869</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6667333836146082</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.035454511637648</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6951176040834544</v>
+      </c>
+      <c r="P25" t="n">
+        <v>139.6214601507739</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>223.7238920666797</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_12_6_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9329291185637116</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7324979210068716</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9787017221163358</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2156253980852744</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8457303856301992</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4485032929974724</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.788787633960865</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2633290802368978</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.52881469782287</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.396071719564016</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.321086090922399</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6697038845620297</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.035771136766021</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6982145654059924</v>
+      </c>
+      <c r="P26" t="n">
+        <v>139.6036785105279</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>223.7061104264337</v>
       </c>
     </row>
   </sheetData>
